--- a/第一题/output_var_improve/GDP预测结果.xlsx
+++ b/第一题/output_var_improve/GDP预测结果.xlsx
@@ -465,10 +465,10 @@
         <v>23776.6613</v>
       </c>
       <c r="C2" t="n">
-        <v>34.5121</v>
+        <v>42.011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365159</v>
+        <v>0.10234</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23674.3941</v>
+        <v>23714.6436</v>
       </c>
       <c r="C3" t="n">
-        <v>25.8564</v>
+        <v>41.4647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365922</v>
+        <v>0.107648</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23654.8122</v>
+        <v>23742.9341</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8001</v>
+        <v>41.2074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.422511</v>
+        <v>0.102769</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23551.2802</v>
+        <v>23629.5857</v>
       </c>
       <c r="C5" t="n">
-        <v>18.1307</v>
+        <v>41.3323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.435609</v>
+        <v>0.100226</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23544.6625</v>
+        <v>23577.2172</v>
       </c>
       <c r="C6" t="n">
-        <v>17.2769</v>
+        <v>41.5108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.445916</v>
+        <v>0.09500400000000001</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23682.376</v>
+        <v>23669.2972</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4223</v>
+        <v>41.5733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.457921</v>
+        <v>0.090625</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23878.938</v>
+        <v>23773.558</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9418</v>
+        <v>41.5696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.459978</v>
+        <v>0.086524</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24042.0167</v>
+        <v>23848.9222</v>
       </c>
       <c r="C9" t="n">
-        <v>14.0168</v>
+        <v>41.5811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.460745</v>
+        <v>0.082791</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24155.7165</v>
+        <v>23911.0131</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7129</v>
+        <v>41.6225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.461733</v>
+        <v>0.079501</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24252.1297</v>
+        <v>23958.3318</v>
       </c>
       <c r="C11" t="n">
-        <v>17.479</v>
+        <v>41.6705</v>
       </c>
       <c r="D11" t="n">
-        <v>0.47007</v>
+        <v>0.07657799999999999</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24327.1252</v>
+        <v>23997.2403</v>
       </c>
       <c r="C12" t="n">
-        <v>21.5602</v>
+        <v>41.7106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.470894</v>
+        <v>0.074007</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24389.4687</v>
+        <v>24040.213</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8274</v>
+        <v>41.745</v>
       </c>
       <c r="D13" t="n">
-        <v>0.477582</v>
+        <v>0.071752</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24439.3874</v>
+        <v>24089.8793</v>
       </c>
       <c r="C14" t="n">
-        <v>25.272</v>
+        <v>41.7801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.515404</v>
+        <v>0.06977999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24454.3264</v>
+        <v>24142.6058</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4185</v>
+        <v>41.8175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.516284</v>
+        <v>0.068061</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24431.8165</v>
+        <v>24195.8811</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1957</v>
+        <v>41.8556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.526944</v>
+        <v>0.066568</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24397.7895</v>
+        <v>24248.635</v>
       </c>
       <c r="C17" t="n">
-        <v>20.045</v>
+        <v>41.8933</v>
       </c>
       <c r="D17" t="n">
-        <v>0.528182</v>
+        <v>0.065273</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24394.0161</v>
+        <v>24300.4376</v>
       </c>
       <c r="C18" t="n">
-        <v>19.569</v>
+        <v>41.9305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.529413</v>
+        <v>0.064154</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24438.2383</v>
+        <v>24351.607</v>
       </c>
       <c r="C19" t="n">
-        <v>18.5413</v>
+        <v>41.9677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.532277</v>
+        <v>0.063189</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24515.4995</v>
+        <v>24402.7377</v>
       </c>
       <c r="C20" t="n">
-        <v>16.7345</v>
+        <v>42.0051</v>
       </c>
       <c r="D20" t="n">
-        <v>0.53367</v>
+        <v>0.062358</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24604.3785</v>
+        <v>24454.1611</v>
       </c>
       <c r="C21" t="n">
-        <v>15.2708</v>
+        <v>42.0426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.535067</v>
+        <v>0.061644</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24698.7238</v>
+        <v>24505.9245</v>
       </c>
       <c r="C22" t="n">
-        <v>15.036</v>
+        <v>42.0802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.538426</v>
+        <v>0.061031</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24790.0582</v>
+        <v>24557.9461</v>
       </c>
       <c r="C23" t="n">
-        <v>16.2647</v>
+        <v>42.1177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.544972</v>
+        <v>0.060506</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24876.8112</v>
+        <v>24610.1139</v>
       </c>
       <c r="C24" t="n">
-        <v>18.4676</v>
+        <v>42.1553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.54591</v>
+        <v>0.060057</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24963.4873</v>
+        <v>24662.352</v>
       </c>
       <c r="C25" t="n">
-        <v>20.4791</v>
+        <v>42.1929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.551437</v>
+        <v>0.059673</v>
       </c>
     </row>
   </sheetData>
